--- a/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Father/3_bordervowels_mfcc_no_IDS_F.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Father/3_bordervowels_mfcc_no_IDS_F.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7792.833862111749</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6331.026667834889</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7072.490226453159</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7923.548545132811</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4674.903934028611</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6302.423205350276</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6090.811060908069</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6587.601781996593</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7041.531660966502</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10252.18938394825</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7402.87573842171</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7637.236997699691</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8985.004292245745</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5795.952607547664</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6644.812038189468</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5963.664960477669</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7474.108676324052</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9307.378187179904</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6877.458134891762</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10807.35044018505</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9516.132870616695</v>
+        <v>9516</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13022.83503084807</v>
+        <v>13023</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7016.846443909867</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11432.79576310812</v>
+        <v>11433</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9654.995537955363</v>
+        <v>9655</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5909.108513570664</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5333.64898312307</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5142.927559869495</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9042.430176297863</v>
+        <v>9042</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9620.541850622509</v>
+        <v>9621</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13248.58391455322</v>
+        <v>13249</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6494.038249724454</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6590.232682660935</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5378.36974064246</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6708.799295751125</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9594.267653373394</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9600.21855677006</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7335.460754278993</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5961.552525659247</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10921.37679742478</v>
+        <v>10921</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10213.23042734222</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8716.492125742017</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11011.83192048209</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9199.951301288977</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7383.478955579258</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6839.893827038719</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8268.121305678533</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6320.718312139867</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5818.714576132829</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8698.067973540183</v>
+        <v>8698</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6546.077821977844</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7794.091701403915</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7224.105569413787</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5581.893428303174</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8631.364185127237</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7452.886512493267</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11803.68072076285</v>
+        <v>11804</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7764.260464813389</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4679.138073845127</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7939.665925299625</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9142.108070031194</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6821.251285270329</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7279.33550589779</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9473.099831600412</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8595.036488618562</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7588.675721973996</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9149.975700281357</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7453.813228619448</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8697.630009696393</v>
+        <v>8698</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7852.254307876465</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6222.828975273203</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6800.121398957543</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5933.618136845086</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3373.165783225937</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4788.721192351861</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6705.289918410086</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4858.630939137634</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8158.670769891874</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>12242.96836033303</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>13252.07572516</v>
+        <v>13252</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6016.513035032378</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5364.706804255129</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5457.234037764277</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9802.151156910548</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9779.066697601715</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5938.827922737481</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5430.151731148123</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>11322.52718004524</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8500.858140190077</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8983.93876751913</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8567.390515156174</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7233.30166501526</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6107.31951829713</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9341.130949968834</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4400.928921450535</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4742.387938611374</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2110.421202170728</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3253.161095970991</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9218.580745895542</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5289.047768765729</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8499.524270518603</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>12352.08141891638</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9839.3286195974</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7172.39825964836</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>10235.30786943153</v>
+        <v>10235</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7764.537629637745</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>10447.53764614198</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7393.553902909565</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7671.839208783475</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9209.615370525094</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6296.449760988369</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8231.341802050923</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5627.678054006727</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>6876.898332298486</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>8744.261857985024</v>
+        <v>8744</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4672.094691182733</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4396.042886630593</v>
+        <v>4396</v>
       </c>
     </row>
   </sheetData>
